--- a/03_PizzaShop/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/03_PizzaShop/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB908202-EF51-4AC8-B2D8-81D914060348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD683A33-F84E-4D38-B050-C2A01E2CC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="141">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -440,9 +440,6 @@
     <t>table is in [1;9]</t>
   </si>
   <si>
-    <t>table is not in [1;9]</t>
-  </si>
-  <si>
     <t>type is PaymentType</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
   </si>
   <si>
     <t>amount is in (0.0,2000.0)</t>
-  </si>
-  <si>
-    <t>amount is not in (0.0,2000.0)</t>
   </si>
   <si>
     <r>
@@ -547,9 +541,6 @@
     <t>table is int in [1;9]</t>
   </si>
   <si>
-    <t>1. table=5</t>
-  </si>
-  <si>
     <t>2. table=1</t>
   </si>
   <si>
@@ -565,9 +556,6 @@
     <t>6. table=10</t>
   </si>
   <si>
-    <t>7. table=15</t>
-  </si>
-  <si>
     <t>type is PaymentType, not null</t>
   </si>
   <si>
@@ -665,6 +653,27 @@
   </si>
   <si>
     <t>BVA14_ECP</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>table &lt; 1</t>
+  </si>
+  <si>
+    <t>table &gt; 9</t>
+  </si>
+  <si>
+    <t>amount &lt; 0</t>
+  </si>
+  <si>
+    <t>amount &gt; 2000</t>
+  </si>
+  <si>
+    <t>1. table=2</t>
+  </si>
+  <si>
+    <t>7. table=8</t>
   </si>
 </sst>
 </file>
@@ -903,7 +912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1415,11 +1424,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1517,6 +1539,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,51 +1592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,6 +1600,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1604,20 +1622,158 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1625,44 +1781,68 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1676,11 +1856,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1688,163 +1895,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2155,7 +2211,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -2169,12 +2225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>1</v>
       </c>
@@ -2182,11 +2238,11 @@
       <c r="J1" s="41"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
@@ -2349,21 +2405,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="40"/>
@@ -2384,10 +2440,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Q22"/>
+  <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:Q19"/>
+    <sheetView topLeftCell="E1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,16 +2464,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="112" t="s">
-        <v>79</v>
+      <c r="B3" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -2462,28 +2518,28 @@
       <c r="G6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="57" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="57"/>
+      <c r="Q6" s="89"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2491,430 +2547,468 @@
       </c>
       <c r="E7" s="4"/>
       <c r="G7" s="71"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="53" t="s">
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="54"/>
+      <c r="Q7" s="74"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="63"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="49">
-        <v>20.99</v>
-      </c>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="50"/>
+        <v>135</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
       <c r="J9" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="49">
-        <v>-20.99</v>
-      </c>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="K9" s="75">
+        <v>20.99</v>
+      </c>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="17">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="75">
+        <v>-20.99</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="77"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="26">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="78">
+        <v>23.99</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="80"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="26">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" s="26">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="59">
-        <v>23.99</v>
-      </c>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="59" t="s">
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="60"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="G11" s="26">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5</v>
-      </c>
-      <c r="J11" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="59">
+      <c r="K12" s="78">
         <v>0</v>
       </c>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="60"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="61">
-        <v>20.99</v>
-      </c>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="62"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>7</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>33</v>
-      </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="80"/>
+    </row>
+    <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="9">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="6">
-        <v>10</v>
-      </c>
-      <c r="J13" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="61">
-        <v>2000</v>
-      </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="62"/>
+      <c r="E13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="65"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="62"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="E14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="51">
-        <v>99.99</v>
-      </c>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="52"/>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="81">
+        <v>20.99</v>
+      </c>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="14">
-        <v>8</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="13">
-        <v>20</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="51">
-        <v>2001</v>
-      </c>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" s="52"/>
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="81">
+        <v>2000</v>
+      </c>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="82"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="63"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="64"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="52"/>
+      <c r="G16" s="14">
+        <v>7</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="83">
+        <v>99.99</v>
+      </c>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="84"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52"/>
+      <c r="G17" s="14">
+        <v>8</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="13">
+        <v>20</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="83">
+        <v>2001</v>
+      </c>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="84"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <v>12</v>
-      </c>
-      <c r="C18" s="63"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="14"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
-        <v>13</v>
-      </c>
-      <c r="C19" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
-        <v>14</v>
-      </c>
-      <c r="C20" s="63"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="62"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="84"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
     <mergeCell ref="K9:O9"/>
     <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2927,8 +3021,8 @@
   </sheetPr>
   <dimension ref="B1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:R26"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,16 +3046,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="119" t="s">
-        <v>96</v>
+      <c r="B3" s="122" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -2970,11 +3064,11 @@
       <c r="G3" s="67"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="3"/>
       <c r="G5" s="69" t="s">
         <v>36</v>
@@ -3011,58 +3105,58 @@
       <c r="I6" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="74" t="s">
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="76"/>
+      <c r="R6" s="126"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>1</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>97</v>
+      <c r="C7" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
-      <c r="J7" s="56"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="53" t="s">
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="54"/>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="79"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
@@ -3071,33 +3165,33 @@
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K8" s="25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="123">
+        <v>85</v>
+      </c>
+      <c r="M8" s="104">
         <v>29.99</v>
       </c>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="73"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="14">
         <v>2</v>
@@ -3106,33 +3200,33 @@
         <v>2</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K9" s="25">
         <v>1</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="123">
+        <v>85</v>
+      </c>
+      <c r="M9" s="104">
         <v>29.99</v>
       </c>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" s="73"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" s="17">
         <v>3</v>
@@ -3141,87 +3235,87 @@
         <v>3</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K10" s="25">
         <v>9</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="123">
+        <v>85</v>
+      </c>
+      <c r="M10" s="104">
         <v>29.99</v>
       </c>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="72" t="s">
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="92"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="97"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="87">
+        <v>4</v>
+      </c>
+      <c r="H11" s="107">
+        <v>4</v>
+      </c>
+      <c r="I11" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="111">
+        <v>0</v>
+      </c>
+      <c r="L11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="73"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="55">
-        <v>4</v>
-      </c>
-      <c r="H11" s="126">
-        <v>4</v>
-      </c>
-      <c r="I11" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="128">
-        <v>0</v>
-      </c>
-      <c r="L11" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="130">
+      <c r="M11" s="115">
         <v>29.99</v>
       </c>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="134"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="129"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="143"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="88"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="65"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="G13" s="17">
         <v>5</v>
@@ -3230,37 +3324,37 @@
         <v>5</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K13" s="25">
         <v>-5</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="144">
+        <v>85</v>
+      </c>
+      <c r="M13" s="93">
         <v>29.99</v>
       </c>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="73"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="92"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="64">
+      <c r="B14" s="63">
         <v>2</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>105</v>
+      <c r="C14" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G14" s="14">
         <v>6</v>
@@ -3269,33 +3363,33 @@
         <v>6</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="147">
+        <v>111</v>
+      </c>
+      <c r="K14" s="56">
         <v>10</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="144">
+        <v>85</v>
+      </c>
+      <c r="M14" s="93">
         <v>29.99</v>
       </c>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R14" s="73"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G15" s="17">
         <v>7</v>
@@ -3304,31 +3398,31 @@
         <v>7</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="147">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="K15" s="56">
+        <v>8</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="144">
+        <v>85</v>
+      </c>
+      <c r="M15" s="93">
         <v>29.99</v>
       </c>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R15" s="73"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="92"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="2"/>
       <c r="G16" s="17">
         <v>8</v>
@@ -3337,31 +3431,31 @@
         <v>8</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="147">
+        <v>111</v>
+      </c>
+      <c r="K16" s="56">
         <v>5</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="144">
+        <v>82</v>
+      </c>
+      <c r="M16" s="93">
         <v>29.99</v>
       </c>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" s="73"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="92"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="2"/>
       <c r="G17" s="17">
         <v>9</v>
@@ -3373,28 +3467,28 @@
         <v>43</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K17" s="25">
         <v>5</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="144">
+        <v>113</v>
+      </c>
+      <c r="M17" s="93">
         <v>29.99</v>
       </c>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" s="73"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="92"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="2"/>
       <c r="G18" s="17">
         <v>10</v>
@@ -3403,31 +3497,31 @@
         <v>10</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K18" s="25">
         <v>5</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="144">
+        <v>85</v>
+      </c>
+      <c r="M18" s="93">
         <v>1000</v>
       </c>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="R18" s="73"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="R18" s="92"/>
     </row>
     <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="2"/>
       <c r="G19" s="17">
         <v>11</v>
@@ -3436,37 +3530,37 @@
         <v>11</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K19" s="25">
         <v>5</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="144">
+        <v>85</v>
+      </c>
+      <c r="M19" s="93">
         <v>0</v>
       </c>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="73"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="92"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="64">
+      <c r="B20" s="63">
         <v>3</v>
       </c>
-      <c r="C20" s="80" t="s">
-        <v>108</v>
+      <c r="C20" s="98" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G20" s="17">
         <v>12</v>
@@ -3475,33 +3569,33 @@
         <v>12</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K20" s="25">
         <v>5</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="144">
+        <v>85</v>
+      </c>
+      <c r="M20" s="93">
         <v>2000</v>
       </c>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R20" s="73"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="92"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G21" s="17">
         <v>13</v>
@@ -3510,33 +3604,33 @@
         <v>13</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K21" s="25">
         <v>5</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="144">
+        <v>85</v>
+      </c>
+      <c r="M21" s="93">
         <v>-1</v>
       </c>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="73"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="92"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G22" s="17">
         <v>14</v>
@@ -3545,33 +3639,33 @@
         <v>14</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K22" s="25">
         <v>5</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="144">
+        <v>85</v>
+      </c>
+      <c r="M22" s="93">
         <v>2050</v>
       </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="R22" s="73"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="92"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="120" t="s">
-        <v>112</v>
+      <c r="B23" s="97"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="G23" s="17">
         <v>15</v>
@@ -3581,18 +3675,18 @@
       <c r="J23" s="11"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="73"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" s="17">
         <v>16</v>
@@ -3602,16 +3696,16 @@
       <c r="J24" s="11"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="2"/>
       <c r="G25" s="17">
         <v>17</v>
@@ -3621,18 +3715,18 @@
       <c r="J25" s="11"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="73"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="64">
+      <c r="B26" s="63">
         <v>4</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="98" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3646,70 +3740,104 @@
       <c r="J26" s="11"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="73"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="79"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="79"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="33"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="79"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="65"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="M7:P7"/>
@@ -3726,49 +3854,15 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3782,8 +3876,8 @@
   </sheetPr>
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,79 +3889,79 @@
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="57" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="57"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="107"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="159"/>
       <c r="M5" s="20" t="s">
         <v>31</v>
       </c>
@@ -3879,7 +3973,7 @@
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="160" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -3890,54 +3984,58 @@
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="49">
+        <v>82</v>
+      </c>
+      <c r="H6" s="75">
         <v>20.99</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="50"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="165" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="161"/>
       <c r="D7" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="2">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="49">
+        <v>85</v>
+      </c>
+      <c r="H7" s="75">
         <v>-20.99</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="50"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="24" t="s">
         <v>52</v>
       </c>
@@ -3945,55 +4043,59 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="59">
+      <c r="G8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="78">
         <v>23.99</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="60"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="161"/>
       <c r="D9" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="59">
+      <c r="G9" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="78">
         <v>0</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="60"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="164" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="164" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="161"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4001,494 +4103,530 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="61">
+      <c r="G10" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="81">
         <v>20.99</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="62"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="161"/>
       <c r="D11" s="24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="6">
         <v>10</v>
       </c>
-      <c r="G11" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="61">
+      <c r="G11" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="81">
         <v>2000</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="62"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="13">
         <v>-1</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="51">
+        <v>88</v>
+      </c>
+      <c r="H12" s="83">
         <v>99.99</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="52"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="98"/>
+      <c r="C13" s="161"/>
       <c r="D13" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="13">
         <v>20</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="51">
+        <v>88</v>
+      </c>
+      <c r="H13" s="83">
         <v>2001</v>
       </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="52"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="44" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>9</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="23"/>
       <c r="E14" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F14" s="25">
         <v>5</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="49">
+        <v>85</v>
+      </c>
+      <c r="H14" s="75">
         <v>29.99</v>
       </c>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="50"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f t="shared" ref="B15:B27" si="1">B14+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="161"/>
       <c r="D15" s="23"/>
       <c r="E15" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="49">
+        <v>85</v>
+      </c>
+      <c r="H15" s="75">
         <v>29.99</v>
       </c>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="50"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="23"/>
       <c r="E16" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16" s="25">
         <v>9</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="49">
+        <v>85</v>
+      </c>
+      <c r="H16" s="75">
         <v>29.99</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="60"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="23"/>
       <c r="E17" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="49">
+        <v>85</v>
+      </c>
+      <c r="H17" s="75">
         <v>29.99</v>
       </c>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="N17" s="60"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="23"/>
       <c r="E18" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F18" s="25">
         <v>-5</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="49">
+        <v>85</v>
+      </c>
+      <c r="H18" s="75">
         <v>29.99</v>
       </c>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" s="62"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="23"/>
       <c r="E19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="147">
+        <v>125</v>
+      </c>
+      <c r="F19" s="56">
         <v>10</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="49">
+        <v>85</v>
+      </c>
+      <c r="H19" s="75">
         <v>29.99</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="62"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C20" s="98"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="23"/>
       <c r="E20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="147">
+        <v>126</v>
+      </c>
+      <c r="F20" s="56">
         <v>15</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="49">
+        <v>85</v>
+      </c>
+      <c r="H20" s="75">
         <v>29.99</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N20" s="52"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="23"/>
       <c r="E21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="147">
+        <v>127</v>
+      </c>
+      <c r="F21" s="56">
         <v>5</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="49">
+        <v>82</v>
+      </c>
+      <c r="H21" s="75">
         <v>29.99</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N21" s="52"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>17</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="23"/>
       <c r="E22" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F22" s="25">
         <v>5</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="49">
+        <v>113</v>
+      </c>
+      <c r="H22" s="75">
         <v>29.99</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="50"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <f>B22+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="23"/>
       <c r="E23" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F23" s="25">
         <v>5</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="49">
+        <v>85</v>
+      </c>
+      <c r="H23" s="75">
         <v>1000</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="50"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C24" s="98"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="23"/>
       <c r="E24" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F24" s="25">
         <v>5</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="49">
+        <v>85</v>
+      </c>
+      <c r="H24" s="75">
         <v>0</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="N24" s="60"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C25" s="98"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="23"/>
       <c r="E25" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F25" s="25">
         <v>5</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="49">
+        <v>85</v>
+      </c>
+      <c r="H25" s="75">
         <v>2000</v>
       </c>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" s="60"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="23"/>
       <c r="E26" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F26" s="25">
         <v>5</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="49">
+        <v>85</v>
+      </c>
+      <c r="H26" s="75">
         <v>-1</v>
       </c>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" s="62"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C27" s="98"/>
+      <c r="C27" s="161"/>
       <c r="D27" s="23"/>
       <c r="E27" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F27" s="25">
         <v>5</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="49">
+        <v>85</v>
+      </c>
+      <c r="H27" s="75">
         <v>2050</v>
       </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="N27" s="62"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
@@ -4517,98 +4655,98 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="151" t="s">
+      <c r="I31" s="138"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="153"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="141"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="96" t="s">
+      <c r="G32" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="93"/>
-      <c r="J32" s="84" t="s">
+      <c r="I32" s="147"/>
+      <c r="J32" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="84" t="s">
+      <c r="K32" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="85" t="s">
+      <c r="L32" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="M32" s="90" t="s">
+      <c r="M32" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="84" t="s">
+      <c r="N32" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="O32" s="84" t="s">
+      <c r="O32" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="85" t="s">
+      <c r="P32" s="132" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="85"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="132"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
@@ -4618,107 +4756,45 @@
         <v>22</v>
       </c>
       <c r="D34" s="30">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E34" s="30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34" s="31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="36">
-        <v>3</v>
-      </c>
-      <c r="H34" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="103"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="134"/>
       <c r="J34" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K34" s="30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L34" s="31">
         <v>0</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="N34" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O34" s="30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P34" s="31">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="H5:L5"/>
+  <mergeCells count="51">
     <mergeCell ref="C6:C27"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -4729,7 +4805,47 @@
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4744,6 +4860,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4887,15 +5012,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
@@ -4906,6 +5022,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4921,12 +5045,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>